--- a/Code/Results/Cases/Case_2_158/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_158/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.15061145205833</v>
+        <v>9.957004961598832</v>
       </c>
       <c r="C2">
-        <v>6.365341959058137</v>
+        <v>4.313327511860538</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.61726923255119</v>
+        <v>18.02067970953283</v>
       </c>
       <c r="F2">
-        <v>35.7791444655151</v>
+        <v>44.02529512794491</v>
       </c>
       <c r="G2">
-        <v>36.75922489518322</v>
+        <v>42.20406576581988</v>
       </c>
       <c r="H2">
-        <v>12.2269349293176</v>
+        <v>17.57655709645851</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.669564294352543</v>
+        <v>9.003186998171328</v>
       </c>
       <c r="K2">
-        <v>10.70855317938523</v>
+        <v>9.348048149965148</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.12760422798666</v>
+        <v>17.1337054571114</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.32770647501516</v>
+        <v>9.745712650386167</v>
       </c>
       <c r="C3">
-        <v>6.058934786721049</v>
+        <v>4.16530387558455</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.96921321729523</v>
+        <v>17.95242954479495</v>
       </c>
       <c r="F3">
-        <v>34.61501895455864</v>
+        <v>43.91291568152698</v>
       </c>
       <c r="G3">
-        <v>36.04938651867158</v>
+        <v>42.14947246247466</v>
       </c>
       <c r="H3">
-        <v>12.21488623768098</v>
+        <v>17.61141076735169</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.731926939846193</v>
+        <v>9.021944783352584</v>
       </c>
       <c r="K3">
-        <v>10.06793540936316</v>
+        <v>9.219275531925582</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.48748936333874</v>
+        <v>17.0583100539414</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.79416030197895</v>
+        <v>9.616291574269566</v>
       </c>
       <c r="C4">
-        <v>5.863037053766639</v>
+        <v>4.070704107893452</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.5626202890135</v>
+        <v>17.91411173637775</v>
       </c>
       <c r="F4">
-        <v>33.90978037706618</v>
+        <v>43.85428624938123</v>
       </c>
       <c r="G4">
-        <v>35.64264664190036</v>
+        <v>42.12713406041926</v>
       </c>
       <c r="H4">
-        <v>12.2155040245513</v>
+        <v>17.63566683661126</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.771214214209287</v>
+        <v>9.034054532392327</v>
       </c>
       <c r="K4">
-        <v>9.654627706134358</v>
+        <v>9.141582228360626</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.0848134692555</v>
+        <v>17.01537319038351</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.56956707447069</v>
+        <v>9.563712625158391</v>
       </c>
       <c r="C5">
-        <v>5.781288571907113</v>
+        <v>4.031251148835703</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.39496180110441</v>
+        <v>17.8994106861418</v>
       </c>
       <c r="F5">
-        <v>33.62510321174845</v>
+        <v>43.83301616633935</v>
       </c>
       <c r="G5">
-        <v>35.48412261275255</v>
+        <v>42.12084278927706</v>
       </c>
       <c r="H5">
-        <v>12.21769052236431</v>
+        <v>17.64626823046671</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.787481617908919</v>
+        <v>9.039138713022188</v>
       </c>
       <c r="K5">
-        <v>9.481191438324101</v>
+        <v>9.110307226818568</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.91850337188488</v>
+        <v>16.9987338596876</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.53183892638101</v>
+        <v>9.554994106659693</v>
       </c>
       <c r="C6">
-        <v>5.767599590636259</v>
+        <v>4.024646458105429</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.36701030469001</v>
+        <v>17.89702509298001</v>
       </c>
       <c r="F6">
-        <v>33.57800614888136</v>
+        <v>43.82964298859061</v>
       </c>
       <c r="G6">
-        <v>35.4582331082467</v>
+        <v>42.11996790404653</v>
       </c>
       <c r="H6">
-        <v>12.21816810429774</v>
+        <v>17.64807184142141</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.790198560104503</v>
+        <v>9.039991969991847</v>
       </c>
       <c r="K6">
-        <v>9.452090459677763</v>
+        <v>9.105138493301913</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.89076062616629</v>
+        <v>16.99602310321704</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.79116046004094</v>
+        <v>9.615581713412482</v>
       </c>
       <c r="C7">
-        <v>5.861942282085017</v>
+        <v>4.070175643555292</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.56036684900861</v>
+        <v>17.91390975864263</v>
       </c>
       <c r="F7">
-        <v>33.90592970803278</v>
+        <v>43.85398876164821</v>
       </c>
       <c r="G7">
-        <v>35.64047961248759</v>
+        <v>42.1270378312704</v>
       </c>
       <c r="H7">
-        <v>12.215525784551</v>
+        <v>17.63580690998273</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.77143255038607</v>
+        <v>9.034122494154831</v>
       </c>
       <c r="K7">
-        <v>9.652308945688524</v>
+        <v>9.141158828545176</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.08257922588844</v>
+        <v>17.01514529592004</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.87270741187229</v>
+        <v>9.884135240329071</v>
       </c>
       <c r="C8">
-        <v>6.261320879848283</v>
+        <v>4.263076919854282</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.39574021199931</v>
+        <v>17.99640957474106</v>
       </c>
       <c r="F8">
-        <v>35.37595710918092</v>
+        <v>43.984403060971</v>
       </c>
       <c r="G8">
-        <v>36.50838249811289</v>
+        <v>42.1829218861219</v>
       </c>
       <c r="H8">
-        <v>12.22106778306506</v>
+        <v>17.58798119037683</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.690864439752685</v>
+        <v>9.009531971423042</v>
       </c>
       <c r="K8">
-        <v>10.49181427711336</v>
+        <v>9.303386565282217</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.90900811210004</v>
+        <v>17.1070211623634</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.77200005468993</v>
+        <v>10.40973720257323</v>
       </c>
       <c r="C9">
-        <v>6.981938336892488</v>
+        <v>4.610718671638072</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.95730972443547</v>
+        <v>18.18610851226791</v>
       </c>
       <c r="F9">
-        <v>38.32174574515806</v>
+        <v>44.32171678583015</v>
       </c>
       <c r="G9">
-        <v>38.44457422856676</v>
+        <v>42.38112712702839</v>
       </c>
       <c r="H9">
-        <v>12.29923402793164</v>
+        <v>17.51690861440956</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.540443665404229</v>
+        <v>8.965992080611297</v>
       </c>
       <c r="K9">
-        <v>11.97987282930742</v>
+        <v>9.63062537378029</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.60097807496087</v>
+        <v>17.31316387817158</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.03637490019721</v>
+        <v>10.7907568135259</v>
       </c>
       <c r="C10">
-        <v>7.47257967125645</v>
+        <v>4.846100009691321</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.04993608127646</v>
+        <v>18.34169440606017</v>
       </c>
       <c r="F10">
-        <v>40.5099235129918</v>
+        <v>44.61812507770134</v>
       </c>
       <c r="G10">
-        <v>40.01377740326328</v>
+        <v>42.58046694821107</v>
       </c>
       <c r="H10">
-        <v>12.40288425237945</v>
+        <v>17.47860941037231</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.434057232337675</v>
+        <v>8.936831716567728</v>
       </c>
       <c r="K10">
-        <v>12.97782660615479</v>
+        <v>9.874203384272842</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.92660498999552</v>
+        <v>17.47950848326939</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.58407281538602</v>
+        <v>10.96209085492015</v>
       </c>
       <c r="C11">
-        <v>7.687385713941702</v>
+        <v>4.948602724921225</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.53405916414568</v>
+        <v>18.41580433196267</v>
       </c>
       <c r="F11">
-        <v>41.50828870487224</v>
+        <v>44.7632192884261</v>
       </c>
       <c r="G11">
-        <v>40.76026823762586</v>
+        <v>42.68269649963</v>
       </c>
       <c r="H11">
-        <v>12.46123050446312</v>
+        <v>17.46422179998789</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.386441389371411</v>
+        <v>8.924174556429529</v>
       </c>
       <c r="K11">
-        <v>13.41156432979843</v>
+        <v>9.985196950115768</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.50148538765853</v>
+        <v>17.55819690544537</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.78760462353976</v>
+        <v>11.02661564374271</v>
       </c>
       <c r="C12">
-        <v>7.767531813948469</v>
+        <v>4.986744329566791</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.71547239166855</v>
+        <v>18.44432969387239</v>
       </c>
       <c r="F12">
-        <v>41.88663615029999</v>
+        <v>44.81960819963606</v>
       </c>
       <c r="G12">
-        <v>41.04770796442619</v>
+        <v>42.72305435486587</v>
       </c>
       <c r="H12">
-        <v>12.48503282441012</v>
+        <v>17.45921094195276</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.368512749403052</v>
+        <v>8.919468644948942</v>
       </c>
       <c r="K12">
-        <v>13.57294613410277</v>
+        <v>10.02721365216573</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.71521619637105</v>
+        <v>17.58840832653987</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.74394115752086</v>
+        <v>11.01273594737423</v>
       </c>
       <c r="C13">
-        <v>7.750323889520769</v>
+        <v>4.97856006239503</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.67648754643599</v>
+        <v>18.43816601034669</v>
       </c>
       <c r="F13">
-        <v>41.8051410797659</v>
+        <v>44.80740008043653</v>
       </c>
       <c r="G13">
-        <v>40.98558978892117</v>
+        <v>42.71428963977569</v>
       </c>
       <c r="H13">
-        <v>12.47982901868224</v>
+        <v>17.4602706506991</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.372369606856545</v>
+        <v>8.920478279868439</v>
       </c>
       <c r="K13">
-        <v>13.53831630883645</v>
+        <v>10.01816587804911</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.66936031996041</v>
+        <v>17.58188367839359</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.60089456754479</v>
+        <v>10.96740685635459</v>
       </c>
       <c r="C14">
-        <v>7.694003275255391</v>
+        <v>4.951754250020973</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.54902272498995</v>
+        <v>18.41814198506528</v>
       </c>
       <c r="F14">
-        <v>41.53941040466329</v>
+        <v>44.7678296609139</v>
       </c>
       <c r="G14">
-        <v>40.78382025914246</v>
+        <v>42.6859838765288</v>
       </c>
       <c r="H14">
-        <v>12.46315393555929</v>
+        <v>17.46380078179059</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.384964393722623</v>
+        <v>8.923785655057461</v>
       </c>
       <c r="K14">
-        <v>13.42489844674278</v>
+        <v>9.988654205492928</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.5191480843496</v>
+        <v>17.56067424101021</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.51277297094347</v>
+        <v>10.93959318453887</v>
       </c>
       <c r="C15">
-        <v>7.659349896236424</v>
+        <v>4.935246702581439</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.47069638656823</v>
+        <v>18.40593625778811</v>
       </c>
       <c r="F15">
-        <v>41.37667702791981</v>
+        <v>44.74377887104601</v>
       </c>
       <c r="G15">
-        <v>40.66085263629245</v>
+        <v>42.66885961477229</v>
       </c>
       <c r="H15">
-        <v>12.45316533906057</v>
+        <v>17.46602008178126</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.392692108636253</v>
+        <v>8.925822847833958</v>
       </c>
       <c r="K15">
-        <v>13.35505505699652</v>
+        <v>9.970574405093828</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.4266251578913</v>
+        <v>17.54773613273132</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.00003554268795</v>
+        <v>10.77951361420214</v>
       </c>
       <c r="C16">
-        <v>7.458373483776379</v>
+        <v>4.839307742214524</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.01803218618338</v>
+        <v>18.33691671861434</v>
       </c>
       <c r="F16">
-        <v>40.44472463325978</v>
+        <v>44.60884670955964</v>
       </c>
       <c r="G16">
-        <v>39.96565471752812</v>
+        <v>42.57401717930387</v>
       </c>
       <c r="H16">
-        <v>12.39930477520218</v>
+        <v>17.4796108324525</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.437183916163739</v>
+        <v>8.937671096604372</v>
       </c>
       <c r="K16">
-        <v>12.94907725220461</v>
+        <v>9.866949935984421</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.88847575357682</v>
+        <v>17.47442502755773</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.67850738650541</v>
+        <v>10.68074887057223</v>
       </c>
       <c r="C17">
-        <v>7.332937281028721</v>
+        <v>4.779268608838883</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.73698078913125</v>
+        <v>18.29541677157284</v>
       </c>
       <c r="F17">
-        <v>39.87364573169004</v>
+        <v>44.52867658992742</v>
       </c>
       <c r="G17">
-        <v>39.54757814984802</v>
+        <v>42.51878253984079</v>
       </c>
       <c r="H17">
-        <v>12.36919925573437</v>
+        <v>17.48872637255536</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.464671215077503</v>
+        <v>8.945095092697438</v>
       </c>
       <c r="K17">
-        <v>12.69486919098587</v>
+        <v>9.80339828918428</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.55118572509359</v>
+        <v>17.43020981143032</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.49098190311456</v>
+        <v>10.62375820160108</v>
       </c>
       <c r="C18">
-        <v>7.259999023825895</v>
+        <v>4.744306035484436</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.57411324015585</v>
+        <v>18.27186194287371</v>
       </c>
       <c r="F18">
-        <v>39.54545930618939</v>
+        <v>44.48353221095908</v>
       </c>
       <c r="G18">
-        <v>39.31018054161709</v>
+        <v>42.4881011338282</v>
       </c>
       <c r="H18">
-        <v>12.35293108214417</v>
+        <v>17.49425499444218</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.480555200979278</v>
+        <v>8.949422431042574</v>
       </c>
       <c r="K18">
-        <v>12.54674748736312</v>
+        <v>9.766865231676691</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.35452998552884</v>
+        <v>17.40506365155686</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.42704160669327</v>
+        <v>10.60443274652867</v>
       </c>
       <c r="C19">
-        <v>7.235167390194322</v>
+        <v>4.732395049645231</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.51876266484311</v>
+        <v>18.26394128564411</v>
       </c>
       <c r="F19">
-        <v>39.4343945888842</v>
+        <v>44.46841411801513</v>
       </c>
       <c r="G19">
-        <v>39.23032714353465</v>
+        <v>42.47790023213261</v>
       </c>
       <c r="H19">
-        <v>12.3475999668796</v>
+        <v>17.49617591141979</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.485946245097541</v>
+        <v>8.950897437427395</v>
       </c>
       <c r="K19">
-        <v>12.49626710285414</v>
+        <v>9.754500506329984</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.28748718813796</v>
+        <v>17.39659918847004</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.71300219505146</v>
+        <v>10.69128208258364</v>
       </c>
       <c r="C20">
-        <v>7.346371959174636</v>
+        <v>4.785704469638801</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.76702534294816</v>
+        <v>18.29980205289436</v>
       </c>
       <c r="F20">
-        <v>39.93440990436419</v>
+        <v>44.53711092811555</v>
       </c>
       <c r="G20">
-        <v>39.59176506485878</v>
+        <v>42.52454984753309</v>
       </c>
       <c r="H20">
-        <v>12.37229490357177</v>
+        <v>17.48772644114086</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.461737553061652</v>
+        <v>8.94429887283076</v>
       </c>
       <c r="K20">
-        <v>12.72212724067116</v>
+        <v>9.810161685735002</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.58736506035628</v>
+        <v>17.43488721627239</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.64301516388348</v>
+        <v>10.98073129069762</v>
       </c>
       <c r="C21">
-        <v>7.710578357683461</v>
+        <v>4.959646176458763</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.58651449266724</v>
+        <v>18.42401114582822</v>
       </c>
       <c r="F21">
-        <v>41.61745496308637</v>
+        <v>44.77941348968342</v>
       </c>
       <c r="G21">
-        <v>40.84295509091069</v>
+        <v>42.69425343254174</v>
       </c>
       <c r="H21">
-        <v>12.46800466492636</v>
+        <v>17.46275201782445</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.381262299203982</v>
+        <v>8.922811838263282</v>
       </c>
       <c r="K21">
-        <v>13.45828938739082</v>
+        <v>9.997323206491057</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.56337593127054</v>
+        <v>17.56689289920634</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.22831945681128</v>
+        <v>11.16780094902921</v>
       </c>
       <c r="C22">
-        <v>7.941644899968714</v>
+        <v>5.069392820555949</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.11093498138234</v>
+        <v>18.50787043342617</v>
       </c>
       <c r="F22">
-        <v>42.71907481545992</v>
+        <v>44.94617851331892</v>
       </c>
       <c r="G22">
-        <v>41.68846653253011</v>
+        <v>42.81474841908925</v>
       </c>
       <c r="H22">
-        <v>12.54055896824667</v>
+        <v>17.44897978722725</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.329259300661854</v>
+        <v>8.909276228115036</v>
       </c>
       <c r="K22">
-        <v>13.92273953256141</v>
+        <v>10.11954329710936</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.17819486444185</v>
+        <v>17.65556855340488</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.91796330381749</v>
+        <v>11.06817234964021</v>
       </c>
       <c r="C23">
-        <v>7.818952399598181</v>
+        <v>5.011183776727743</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.83207544961402</v>
+        <v>18.46287385624724</v>
       </c>
       <c r="F23">
-        <v>42.13100035801904</v>
+        <v>44.85641423343588</v>
       </c>
       <c r="G23">
-        <v>41.23463308755291</v>
+        <v>42.74956666542138</v>
       </c>
       <c r="H23">
-        <v>12.50088696225758</v>
+        <v>17.45609665559278</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.356963440987482</v>
+        <v>8.916454126222376</v>
       </c>
       <c r="K23">
-        <v>13.67636255915654</v>
+        <v>10.05433468762163</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.85213474792342</v>
+        <v>17.60802767955367</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.69741542914993</v>
+        <v>10.68652066467826</v>
       </c>
       <c r="C24">
-        <v>7.340300706300269</v>
+        <v>4.78279620269716</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.75344620545446</v>
+        <v>18.29781851880271</v>
       </c>
       <c r="F24">
-        <v>39.90693799216502</v>
+        <v>44.5332948132117</v>
       </c>
       <c r="G24">
-        <v>39.57177894490525</v>
+        <v>42.52193910190035</v>
       </c>
       <c r="H24">
-        <v>12.37089212953877</v>
+        <v>17.48817761311919</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.463063608101091</v>
+        <v>8.944658659443114</v>
       </c>
       <c r="K24">
-        <v>12.709810028584</v>
+        <v>9.807103939668369</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.57101693368328</v>
+        <v>17.43277170728553</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.28151034615695</v>
+        <v>10.26813701856044</v>
       </c>
       <c r="C25">
-        <v>6.793788611860421</v>
+        <v>4.520103526871174</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.54400417538337</v>
+        <v>18.13188046831638</v>
       </c>
       <c r="F25">
-        <v>37.51971431213292</v>
+        <v>44.22183907318768</v>
       </c>
       <c r="G25">
-        <v>37.89527406934164</v>
+        <v>42.31804124858708</v>
       </c>
       <c r="H25">
-        <v>12.27035395444551</v>
+        <v>17.53369630639039</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.580374684768496</v>
+        <v>8.977272220096749</v>
       </c>
       <c r="K25">
-        <v>11.59417246810232</v>
+        <v>9.541371870843438</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.0873122942125</v>
+        <v>17.2547097091725</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_158/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_158/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.957004961598832</v>
+        <v>12.15061145205827</v>
       </c>
       <c r="C2">
-        <v>4.313327511860538</v>
+        <v>6.365341959058036</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>18.02067970953283</v>
+        <v>13.6172692325511</v>
       </c>
       <c r="F2">
-        <v>44.02529512794491</v>
+        <v>35.77914446551516</v>
       </c>
       <c r="G2">
-        <v>42.20406576581988</v>
+        <v>36.75922489518337</v>
       </c>
       <c r="H2">
-        <v>17.57655709645851</v>
+        <v>12.22693492931775</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.003186998171328</v>
+        <v>5.669564294352543</v>
       </c>
       <c r="K2">
-        <v>9.348048149965148</v>
+        <v>10.70855317938515</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.1337054571114</v>
+        <v>13.12760422798666</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.745712650386167</v>
+        <v>11.32770647501509</v>
       </c>
       <c r="C3">
-        <v>4.16530387558455</v>
+        <v>6.058934786721026</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.95242954479495</v>
+        <v>12.96921321729523</v>
       </c>
       <c r="F3">
-        <v>43.91291568152698</v>
+        <v>34.61501895455869</v>
       </c>
       <c r="G3">
-        <v>42.14947246247466</v>
+        <v>36.04938651867192</v>
       </c>
       <c r="H3">
-        <v>17.61141076735169</v>
+        <v>12.21488623768113</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.021944783352584</v>
+        <v>5.73192693984642</v>
       </c>
       <c r="K3">
-        <v>9.219275531925582</v>
+        <v>10.06793540936311</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.0583100539414</v>
+        <v>12.48748936333875</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.616291574269566</v>
+        <v>10.7941603019791</v>
       </c>
       <c r="C4">
-        <v>4.070704107893452</v>
+        <v>5.863037053766376</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17.91411173637775</v>
+        <v>12.56262028901356</v>
       </c>
       <c r="F4">
-        <v>43.85428624938123</v>
+        <v>33.90978037706623</v>
       </c>
       <c r="G4">
-        <v>42.12713406041926</v>
+        <v>35.64264664190019</v>
       </c>
       <c r="H4">
-        <v>17.63566683661126</v>
+        <v>12.21550402455124</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.034054532392327</v>
+        <v>5.771214214209258</v>
       </c>
       <c r="K4">
-        <v>9.141582228360626</v>
+        <v>9.654627706134441</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.01537319038351</v>
+        <v>12.08481346925548</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.563712625158391</v>
+        <v>10.56956707447068</v>
       </c>
       <c r="C5">
-        <v>4.031251148835703</v>
+        <v>5.78128857190709</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17.8994106861418</v>
+        <v>12.39496180110428</v>
       </c>
       <c r="F5">
-        <v>43.83301616633935</v>
+        <v>33.62510321174835</v>
       </c>
       <c r="G5">
-        <v>42.12084278927706</v>
+        <v>35.4841226127525</v>
       </c>
       <c r="H5">
-        <v>17.64626823046671</v>
+        <v>12.21769052236434</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.039138713022188</v>
+        <v>5.787481617908958</v>
       </c>
       <c r="K5">
-        <v>9.110307226818568</v>
+        <v>9.481191438324089</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.9987338596876</v>
+        <v>11.91850337188482</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.554994106659693</v>
+        <v>10.53183892638101</v>
       </c>
       <c r="C6">
-        <v>4.024646458105429</v>
+        <v>5.767599590636138</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.89702509298001</v>
+        <v>12.36701030469001</v>
       </c>
       <c r="F6">
-        <v>43.82964298859061</v>
+        <v>33.57800614888147</v>
       </c>
       <c r="G6">
-        <v>42.11996790404653</v>
+        <v>35.45823310824724</v>
       </c>
       <c r="H6">
-        <v>17.64807184142141</v>
+        <v>12.21816810429777</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.039991969991847</v>
+        <v>5.790198560104499</v>
       </c>
       <c r="K6">
-        <v>9.105138493301913</v>
+        <v>9.4520904596777</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.99602310321704</v>
+        <v>11.89076062616632</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.615581713412482</v>
+        <v>10.79116046004091</v>
       </c>
       <c r="C7">
-        <v>4.070175643555292</v>
+        <v>5.861942282085187</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17.91390975864263</v>
+        <v>12.56036684900861</v>
       </c>
       <c r="F7">
-        <v>43.85398876164821</v>
+        <v>33.90592970803285</v>
       </c>
       <c r="G7">
-        <v>42.1270378312704</v>
+        <v>35.64047961248791</v>
       </c>
       <c r="H7">
-        <v>17.63580690998273</v>
+        <v>12.21552578455106</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.034122494154831</v>
+        <v>5.771432550386201</v>
       </c>
       <c r="K7">
-        <v>9.141158828545176</v>
+        <v>9.652308945688501</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.01514529592004</v>
+        <v>12.08257922588846</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.884135240329071</v>
+        <v>11.87270741187228</v>
       </c>
       <c r="C8">
-        <v>4.263076919854282</v>
+        <v>6.261320879848371</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>17.99640957474106</v>
+        <v>13.39574021199928</v>
       </c>
       <c r="F8">
-        <v>43.984403060971</v>
+        <v>35.3759571091809</v>
       </c>
       <c r="G8">
-        <v>42.1829218861219</v>
+        <v>36.50838249811299</v>
       </c>
       <c r="H8">
-        <v>17.58798119037683</v>
+        <v>12.22106778306501</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.009531971423042</v>
+        <v>5.690864439752749</v>
       </c>
       <c r="K8">
-        <v>9.303386565282217</v>
+        <v>10.49181427711337</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.1070211623634</v>
+        <v>12.90900811210002</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.40973720257323</v>
+        <v>13.77200005468992</v>
       </c>
       <c r="C9">
-        <v>4.610718671638072</v>
+        <v>6.981938336892692</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.18610851226791</v>
+        <v>14.95730972443552</v>
       </c>
       <c r="F9">
-        <v>44.32171678583015</v>
+        <v>38.3217457451581</v>
       </c>
       <c r="G9">
-        <v>42.38112712702839</v>
+        <v>38.44457422856679</v>
       </c>
       <c r="H9">
-        <v>17.51690861440956</v>
+        <v>12.29923402793171</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.965992080611297</v>
+        <v>5.540443665404295</v>
       </c>
       <c r="K9">
-        <v>9.63062537378029</v>
+        <v>11.97987282930746</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.31316387817158</v>
+        <v>14.60097807496085</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.7907568135259</v>
+        <v>15.03637490019722</v>
       </c>
       <c r="C10">
-        <v>4.846100009691321</v>
+        <v>7.472579671256634</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>18.34169440606017</v>
+        <v>16.04993608127647</v>
       </c>
       <c r="F10">
-        <v>44.61812507770134</v>
+        <v>40.50992351299178</v>
       </c>
       <c r="G10">
-        <v>42.58046694821107</v>
+        <v>40.01377740326303</v>
       </c>
       <c r="H10">
-        <v>17.47860941037231</v>
+        <v>12.40288425237939</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.936831716567728</v>
+        <v>5.434057232337643</v>
       </c>
       <c r="K10">
-        <v>9.874203384272842</v>
+        <v>12.97782660615481</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.47950848326939</v>
+        <v>15.92660498999549</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.96209085492015</v>
+        <v>15.58407281538596</v>
       </c>
       <c r="C11">
-        <v>4.948602724921225</v>
+        <v>7.687385713941615</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.41580433196267</v>
+        <v>16.53405916414571</v>
       </c>
       <c r="F11">
-        <v>44.7632192884261</v>
+        <v>41.5082887048723</v>
       </c>
       <c r="G11">
-        <v>42.68269649963</v>
+        <v>40.76026823762604</v>
       </c>
       <c r="H11">
-        <v>17.46422179998789</v>
+        <v>12.46123050446318</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.924174556429529</v>
+        <v>5.38644138937141</v>
       </c>
       <c r="K11">
-        <v>9.985196950115768</v>
+        <v>13.41156432979834</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.55819690544537</v>
+        <v>16.50148538765852</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.02661564374271</v>
+        <v>15.78760462353977</v>
       </c>
       <c r="C12">
-        <v>4.986744329566791</v>
+        <v>7.767531813948573</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.44432969387239</v>
+        <v>16.71547239166858</v>
       </c>
       <c r="F12">
-        <v>44.81960819963606</v>
+        <v>41.88663615029999</v>
       </c>
       <c r="G12">
-        <v>42.72305435486587</v>
+        <v>41.04770796442622</v>
       </c>
       <c r="H12">
-        <v>17.45921094195276</v>
+        <v>12.48503282441009</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.919468644948942</v>
+        <v>5.368512749403118</v>
       </c>
       <c r="K12">
-        <v>10.02721365216573</v>
+        <v>13.5729461341028</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.58840832653987</v>
+        <v>16.71521619637104</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.01273594737423</v>
+        <v>15.74394115752082</v>
       </c>
       <c r="C13">
-        <v>4.97856006239503</v>
+        <v>7.750323889520995</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.43816601034669</v>
+        <v>16.67648754643596</v>
       </c>
       <c r="F13">
-        <v>44.80740008043653</v>
+        <v>41.80514107976592</v>
       </c>
       <c r="G13">
-        <v>42.71428963977569</v>
+        <v>40.9855897889212</v>
       </c>
       <c r="H13">
-        <v>17.4602706506991</v>
+        <v>12.47982901868224</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.920478279868439</v>
+        <v>5.372369606856545</v>
       </c>
       <c r="K13">
-        <v>10.01816587804911</v>
+        <v>13.53831630883649</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.58188367839359</v>
+        <v>16.6693603199604</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.96740685635459</v>
+        <v>15.60089456754476</v>
       </c>
       <c r="C14">
-        <v>4.951754250020973</v>
+        <v>7.694003275255165</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.41814198506528</v>
+        <v>16.54902272498993</v>
       </c>
       <c r="F14">
-        <v>44.7678296609139</v>
+        <v>41.53941040466339</v>
       </c>
       <c r="G14">
-        <v>42.6859838765288</v>
+        <v>40.78382025914267</v>
       </c>
       <c r="H14">
-        <v>17.46380078179059</v>
+        <v>12.46315393555941</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.923785655057461</v>
+        <v>5.384964393722623</v>
       </c>
       <c r="K14">
-        <v>9.988654205492928</v>
+        <v>13.42489844674271</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.56067424101021</v>
+        <v>16.51914808434955</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.93959318453887</v>
+        <v>15.51277297094349</v>
       </c>
       <c r="C15">
-        <v>4.935246702581439</v>
+        <v>7.659349896236324</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.40593625778811</v>
+        <v>16.4706963865682</v>
       </c>
       <c r="F15">
-        <v>44.74377887104601</v>
+        <v>41.37667702791991</v>
       </c>
       <c r="G15">
-        <v>42.66885961477229</v>
+        <v>40.6608526362927</v>
       </c>
       <c r="H15">
-        <v>17.46602008178126</v>
+        <v>12.4531653390606</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.925822847833958</v>
+        <v>5.392692108636226</v>
       </c>
       <c r="K15">
-        <v>9.970574405093828</v>
+        <v>13.35505505699648</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.54773613273132</v>
+        <v>16.42662515789125</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.77951361420214</v>
+        <v>15.00003554268795</v>
       </c>
       <c r="C16">
-        <v>4.839307742214524</v>
+        <v>7.458373483776404</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>18.33691671861434</v>
+        <v>16.01803218618337</v>
       </c>
       <c r="F16">
-        <v>44.60884670955964</v>
+        <v>40.44472463325982</v>
       </c>
       <c r="G16">
-        <v>42.57401717930387</v>
+        <v>39.96565471752825</v>
       </c>
       <c r="H16">
-        <v>17.4796108324525</v>
+        <v>12.39930477520219</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.937671096604372</v>
+        <v>5.437183916163807</v>
       </c>
       <c r="K16">
-        <v>9.866949935984421</v>
+        <v>12.94907725220461</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.47442502755773</v>
+        <v>15.8884757535768</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.68074887057223</v>
+        <v>14.67850738650541</v>
       </c>
       <c r="C17">
-        <v>4.779268608838883</v>
+        <v>7.33293728102892</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>18.29541677157284</v>
+        <v>15.73698078913128</v>
       </c>
       <c r="F17">
-        <v>44.52867658992742</v>
+        <v>39.8736457316901</v>
       </c>
       <c r="G17">
-        <v>42.51878253984079</v>
+        <v>39.54757814984799</v>
       </c>
       <c r="H17">
-        <v>17.48872637255536</v>
+        <v>12.36919925573444</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.945095092697438</v>
+        <v>5.464671215077541</v>
       </c>
       <c r="K17">
-        <v>9.80339828918428</v>
+        <v>12.69486919098586</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.43020981143032</v>
+        <v>15.55118572509353</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.62375820160108</v>
+        <v>14.49098190311451</v>
       </c>
       <c r="C18">
-        <v>4.744306035484436</v>
+        <v>7.259999023825983</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>18.27186194287371</v>
+        <v>15.57411324015582</v>
       </c>
       <c r="F18">
-        <v>44.48353221095908</v>
+        <v>39.54545930618944</v>
       </c>
       <c r="G18">
-        <v>42.4881011338282</v>
+        <v>39.31018054161711</v>
       </c>
       <c r="H18">
-        <v>17.49425499444218</v>
+        <v>12.35293108214426</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.949422431042574</v>
+        <v>5.480555200979278</v>
       </c>
       <c r="K18">
-        <v>9.766865231676691</v>
+        <v>12.5467474873631</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.40506365155686</v>
+        <v>15.35452998552883</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.60443274652867</v>
+        <v>14.42704160669325</v>
       </c>
       <c r="C19">
-        <v>4.732395049645231</v>
+        <v>7.235167390194329</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>18.26394128564411</v>
+        <v>15.51876266484313</v>
       </c>
       <c r="F19">
-        <v>44.46841411801513</v>
+        <v>39.4343945888843</v>
       </c>
       <c r="G19">
-        <v>42.47790023213261</v>
+        <v>39.23032714353464</v>
       </c>
       <c r="H19">
-        <v>17.49617591141979</v>
+        <v>12.3475999668796</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.950897437427395</v>
+        <v>5.485946245097444</v>
       </c>
       <c r="K19">
-        <v>9.754500506329984</v>
+        <v>12.49626710285414</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.39659918847004</v>
+        <v>15.28748718813793</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.69128208258364</v>
+        <v>14.71300219505138</v>
       </c>
       <c r="C20">
-        <v>4.785704469638801</v>
+        <v>7.346371959174526</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>18.29980205289436</v>
+        <v>15.76702534294808</v>
       </c>
       <c r="F20">
-        <v>44.53711092811555</v>
+        <v>39.93440990436423</v>
       </c>
       <c r="G20">
-        <v>42.52454984753309</v>
+        <v>39.59176506485909</v>
       </c>
       <c r="H20">
-        <v>17.48772644114086</v>
+        <v>12.37229490357186</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.94429887283076</v>
+        <v>5.461737553061684</v>
       </c>
       <c r="K20">
-        <v>9.810161685735002</v>
+        <v>12.72212724067111</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.43488721627239</v>
+        <v>15.58736506035629</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.98073129069762</v>
+        <v>15.64301516388351</v>
       </c>
       <c r="C21">
-        <v>4.959646176458763</v>
+        <v>7.710578357683376</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.42401114582822</v>
+        <v>16.58651449266727</v>
       </c>
       <c r="F21">
-        <v>44.77941348968342</v>
+        <v>41.61745496308639</v>
       </c>
       <c r="G21">
-        <v>42.69425343254174</v>
+        <v>40.84295509091066</v>
       </c>
       <c r="H21">
-        <v>17.46275201782445</v>
+        <v>12.46800466492637</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.922811838263282</v>
+        <v>5.381262299204049</v>
       </c>
       <c r="K21">
-        <v>9.997323206491057</v>
+        <v>13.4582893873908</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.56689289920634</v>
+        <v>16.56337593127052</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.16780094902921</v>
+        <v>16.22831945681129</v>
       </c>
       <c r="C22">
-        <v>5.069392820555949</v>
+        <v>7.9416448999687</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.50787043342617</v>
+        <v>17.1109349813824</v>
       </c>
       <c r="F22">
-        <v>44.94617851331892</v>
+        <v>42.71907481545993</v>
       </c>
       <c r="G22">
-        <v>42.81474841908925</v>
+        <v>41.68846653253006</v>
       </c>
       <c r="H22">
-        <v>17.44897978722725</v>
+        <v>12.54055896824666</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.909276228115036</v>
+        <v>5.329259300661951</v>
       </c>
       <c r="K22">
-        <v>10.11954329710936</v>
+        <v>13.9227395325614</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.65556855340488</v>
+        <v>17.17819486444182</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.06817234964021</v>
+        <v>15.91796330381749</v>
       </c>
       <c r="C23">
-        <v>5.011183776727743</v>
+        <v>7.8189523995981</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.46287385624724</v>
+        <v>16.83207544961405</v>
       </c>
       <c r="F23">
-        <v>44.85641423343588</v>
+        <v>42.13100035801899</v>
       </c>
       <c r="G23">
-        <v>42.74956666542138</v>
+        <v>41.2346330875528</v>
       </c>
       <c r="H23">
-        <v>17.45609665559278</v>
+        <v>12.50088696225756</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.916454126222376</v>
+        <v>5.356963440987542</v>
       </c>
       <c r="K23">
-        <v>10.05433468762163</v>
+        <v>13.67636255915654</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.60802767955367</v>
+        <v>16.85213474792344</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.68652066467826</v>
+        <v>14.69741542914988</v>
       </c>
       <c r="C24">
-        <v>4.78279620269716</v>
+        <v>7.340300706300236</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>18.29781851880271</v>
+        <v>15.75344620545444</v>
       </c>
       <c r="F24">
-        <v>44.5332948132117</v>
+        <v>39.90693799216508</v>
       </c>
       <c r="G24">
-        <v>42.52193910190035</v>
+        <v>39.57177894490544</v>
       </c>
       <c r="H24">
-        <v>17.48817761311919</v>
+        <v>12.37089212953871</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.944658659443114</v>
+        <v>5.463063608101001</v>
       </c>
       <c r="K24">
-        <v>9.807103939668369</v>
+        <v>12.70981002858396</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.43277170728553</v>
+        <v>15.57101693368328</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.26813701856044</v>
+        <v>13.28151034615694</v>
       </c>
       <c r="C25">
-        <v>4.520103526871174</v>
+        <v>6.79378861186052</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>18.13188046831638</v>
+        <v>14.54400417538331</v>
       </c>
       <c r="F25">
-        <v>44.22183907318768</v>
+        <v>37.51971431213275</v>
       </c>
       <c r="G25">
-        <v>42.31804124858708</v>
+        <v>37.89527406934133</v>
       </c>
       <c r="H25">
-        <v>17.53369630639039</v>
+        <v>12.27035395444552</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.977272220096749</v>
+        <v>5.580374684768528</v>
       </c>
       <c r="K25">
-        <v>9.541371870843438</v>
+        <v>11.59417246810234</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.2547097091725</v>
+        <v>14.08731229421254</v>
       </c>
       <c r="N25">
         <v>0</v>
